--- a/data/statistical/filled_NaN_xlsx/贵州省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/贵州省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>38.6</v>
       </c>
       <c r="E2">
-        <v>1125.760713100433</v>
+        <v>1125.760713532567</v>
       </c>
       <c r="F2">
         <v>4598.28</v>
@@ -609,85 +609,85 @@
         <v>10.75</v>
       </c>
       <c r="H2">
-        <v>37.40956398460548</v>
+        <v>37.40956398437265</v>
       </c>
       <c r="I2">
-        <v>4.684262125665555</v>
+        <v>4.684262125716486</v>
       </c>
       <c r="J2">
-        <v>134.6805026624352</v>
+        <v>134.6805026102811</v>
       </c>
       <c r="K2">
-        <v>42.77566513593774</v>
+        <v>42.77566513139755</v>
       </c>
       <c r="L2">
-        <v>1.920542987346541</v>
+        <v>1.868109187005276</v>
       </c>
       <c r="M2">
-        <v>1023.495936945081</v>
+        <v>1023.495936859399</v>
       </c>
       <c r="N2">
-        <v>186.2286764641758</v>
+        <v>186.2286764690652</v>
       </c>
       <c r="O2">
-        <v>28.33007351541892</v>
+        <v>28.33007352240384</v>
       </c>
       <c r="P2">
-        <v>1677.224948507215</v>
+        <v>1135.931933725908</v>
       </c>
       <c r="Q2">
-        <v>76.83625000115717</v>
+        <v>76.83624999993481</v>
       </c>
       <c r="R2">
-        <v>23.40069400216453</v>
+        <v>23.40069399750791</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-129255.9895544052</v>
       </c>
       <c r="T2">
-        <v>162367.7401888371</v>
+        <v>162367.7402067184</v>
       </c>
       <c r="U2">
-        <v>0.8103076922889159</v>
+        <v>0.8103076923034678</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-16.88828687835485</v>
       </c>
       <c r="W2">
-        <v>18.99767033522949</v>
+        <v>18.9976703315042</v>
       </c>
       <c r="X2">
-        <v>31945.98529100418</v>
+        <v>31945.9852938652</v>
       </c>
       <c r="Y2">
-        <v>60.92075710336113</v>
+        <v>52.40831554033286</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-87837.96107673645</v>
       </c>
       <c r="AA2">
-        <v>24.37762238271534</v>
+        <v>309.4825175348669</v>
       </c>
       <c r="AB2">
-        <v>355156.8333091736</v>
+        <v>-424475.8140735626</v>
       </c>
       <c r="AC2">
-        <v>620352.982667923</v>
+        <v>126138.2224626541</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-7503.09965056181</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-54673.97305965424</v>
       </c>
       <c r="AF2">
-        <v>792.8325569415233</v>
+        <v>312.7236967192376</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>18059.1536667943</v>
       </c>
       <c r="AH2">
-        <v>15323.26503181458</v>
+        <v>43260.85490745842</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>9.039999999999999</v>
       </c>
       <c r="H3">
-        <v>36.67159571801312</v>
+        <v>36.67159571772208</v>
       </c>
       <c r="I3">
         <v>4.1</v>
       </c>
       <c r="J3">
-        <v>99.17548522353172</v>
+        <v>99.17548517510295</v>
       </c>
       <c r="K3">
         <v>37.158040859823</v>
@@ -743,13 +743,13 @@
         <v>77.25</v>
       </c>
       <c r="R3">
-        <v>19.0458333233837</v>
+        <v>19.04583331826143</v>
       </c>
       <c r="S3">
         <v>18663.6</v>
       </c>
       <c r="T3">
-        <v>160760.0882287025</v>
+        <v>160760.0882446766</v>
       </c>
       <c r="U3">
         <v>0.74</v>
@@ -764,34 +764,34 @@
         <v>34288</v>
       </c>
       <c r="Y3">
-        <v>57.97365140240977</v>
+        <v>61.42342541194922</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-23198.24022483826</v>
       </c>
       <c r="AA3">
-        <v>26.23076923552435</v>
+        <v>281.944055984728</v>
       </c>
       <c r="AB3">
-        <v>307793.6242008209</v>
+        <v>-318763.816526413</v>
       </c>
       <c r="AC3">
-        <v>545138.9525794983</v>
+        <v>138276.8616046906</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-6256.501748397946</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-39210.72480964661</v>
       </c>
       <c r="AF3">
-        <v>1006.046881922304</v>
+        <v>662.5349069836943</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>15624.74142956734</v>
       </c>
       <c r="AH3">
-        <v>14554.16712999344</v>
+        <v>30716.65339317897</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>8.73</v>
       </c>
       <c r="H4">
-        <v>36.11188725527609</v>
+        <v>36.11188725510146</v>
       </c>
       <c r="I4">
         <v>4.1</v>
       </c>
       <c r="J4">
-        <v>70.17257013171911</v>
+        <v>70.17257008887827</v>
       </c>
       <c r="K4">
         <v>33.3770413636905</v>
@@ -847,7 +847,7 @@
         <v>83.2</v>
       </c>
       <c r="R4">
-        <v>15.27264705090784</v>
+        <v>15.2726470453199</v>
       </c>
       <c r="S4">
         <v>23505.6</v>
@@ -868,34 +868,34 @@
         <v>12401</v>
       </c>
       <c r="Y4">
-        <v>54.64527783020004</v>
+        <v>47.06902206847758</v>
       </c>
       <c r="Z4">
         <v>177109</v>
       </c>
       <c r="AA4">
-        <v>28.36563437001314</v>
+        <v>256.5194805506617</v>
       </c>
       <c r="AB4">
-        <v>265835.9897212982</v>
+        <v>-217733.553894043</v>
       </c>
       <c r="AC4">
-        <v>477031.4859294891</v>
+        <v>153475.1212291718</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-5060.958291769028</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-25142.47296285629</v>
       </c>
       <c r="AF4">
-        <v>285.6542069523062</v>
+        <v>1438.167125078779</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>13385.63913226128</v>
       </c>
       <c r="AH4">
-        <v>14481.60169577599</v>
+        <v>20593.45645237165</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.2</v>
       </c>
       <c r="J5">
-        <v>47.6717573851347</v>
+        <v>47.67175734788179</v>
       </c>
       <c r="K5">
         <v>27.7682480477905</v>
@@ -972,34 +972,34 @@
         <v>10978</v>
       </c>
       <c r="Y5">
-        <v>55.62330937136205</v>
+        <v>59.89702653642177</v>
       </c>
       <c r="Z5">
         <v>135597</v>
       </c>
       <c r="AA5">
-        <v>30.78221778594889</v>
+        <v>233.2087912317365</v>
       </c>
       <c r="AB5">
-        <v>229283.9298667908</v>
+        <v>-121385.02617836</v>
       </c>
       <c r="AC5">
-        <v>416030.5827121735</v>
+        <v>171733.0013341904</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-3916.469280749559</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>-12469.21751976013</v>
       </c>
       <c r="AF5">
-        <v>-99.81370563109687</v>
+        <v>656.6030601673717</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>11341.84677511454</v>
       </c>
       <c r="AH5">
-        <v>15105.56872868538</v>
+        <v>29344.36246788964</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>10574</v>
       </c>
       <c r="Y6">
-        <v>58.86835279114531</v>
+        <v>60.23409319906593</v>
       </c>
       <c r="Z6">
         <v>78052</v>
       </c>
       <c r="AA6">
-        <v>33.48051948391367</v>
+        <v>212.0119880279526</v>
       </c>
       <c r="AB6">
-        <v>198137.4446411133</v>
+        <v>-29718.23337745667</v>
       </c>
       <c r="AC6">
-        <v>362136.242937088</v>
+        <v>193050.5019216537</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>-2823.034715250134</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>-1190.958480834961</v>
       </c>
       <c r="AF6">
-        <v>-290.0714305410493</v>
+        <v>687.96020120448</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>9493.364358007908</v>
       </c>
       <c r="AH6">
-        <v>16426.06822967529</v>
+        <v>31256.46078909606</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>167394</v>
       </c>
       <c r="AA7">
-        <v>36.46053946355823</v>
+        <v>192.9290709383786</v>
       </c>
       <c r="AB7">
-        <v>172396.5340385437</v>
+        <v>57266.82450866699</v>
       </c>
       <c r="AC7">
-        <v>315348.4666004181</v>
+        <v>217427.6229896545</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>-1780.654595345259</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>8692.304155826569</v>
       </c>
       <c r="AF7">
-        <v>-438.2082634662848</v>
+        <v>1545.771671211504</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>7840.191880822182</v>
       </c>
       <c r="AH7">
-        <v>18443.10019755363</v>
+        <v>43030.22100412516</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>177878</v>
       </c>
       <c r="AA8">
-        <v>39.722277724999</v>
+        <v>175.9600399639457</v>
       </c>
       <c r="AB8">
-        <v>152061.1980667114</v>
+        <v>139570.147480011</v>
       </c>
       <c r="AC8">
-        <v>275667.253698349</v>
+        <v>244864.3645381927</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>-789.3289209604263</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>17180.57038784027</v>
       </c>
       <c r="AF8">
-        <v>-484.2299259664109</v>
+        <v>1584.8165333981</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>6382.329343736172</v>
       </c>
       <c r="AH8">
-        <v>21156.6646335125</v>
+        <v>35370.94451851876</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>236120</v>
       </c>
       <c r="AA9">
-        <v>43.26573426811956</v>
+        <v>161.1048951027915</v>
       </c>
       <c r="AB9">
-        <v>137131.4367198944</v>
+        <v>217191.73554039</v>
       </c>
       <c r="AC9">
-        <v>243092.6042366028</v>
+        <v>275360.7265672684</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>150.9423078149557</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>24273.84021711349</v>
       </c>
       <c r="AF9">
-        <v>492.3974206201776</v>
+        <v>329.8315072009415</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>5119.776746630669</v>
       </c>
       <c r="AH9">
-        <v>24566.76153683662</v>
+        <v>30545.39131540159</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>206603</v>
       </c>
       <c r="AA10">
-        <v>47.09090909280349</v>
+        <v>148.3636363586411</v>
       </c>
       <c r="AB10">
-        <v>127607.2499980927</v>
+        <v>290131.5886802673</v>
       </c>
       <c r="AC10">
-        <v>217624.5182151794</v>
+        <v>308916.7090806961</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1040.159091070294</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>29972.11364221573</v>
       </c>
       <c r="AF10">
-        <v>572.4505754463416</v>
+        <v>1354.273810974332</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>4052.534089624882</v>
       </c>
       <c r="AH10">
-        <v>28673.39090752602</v>
+        <v>52144.14253298361</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>202409</v>
       </c>
       <c r="AA11">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="AB11">
-        <v>83002</v>
+        <v>321478</v>
       </c>
       <c r="AC11">
-        <v>182695</v>
+        <v>298335</v>
       </c>
       <c r="AD11">
-        <v>423</v>
+        <v>1773</v>
       </c>
       <c r="AE11">
-        <v>35</v>
+        <v>18642</v>
       </c>
       <c r="AF11">
-        <v>179</v>
+        <v>1478</v>
       </c>
       <c r="AG11">
-        <v>433</v>
+        <v>6142</v>
       </c>
       <c r="AH11">
-        <v>39609</v>
+        <v>72918</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>147704</v>
       </c>
       <c r="AA12">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="AB12">
-        <v>134342</v>
+        <v>392072</v>
       </c>
       <c r="AC12">
-        <v>198913</v>
+        <v>394316</v>
       </c>
       <c r="AD12">
-        <v>652</v>
+        <v>2663</v>
       </c>
       <c r="AE12">
-        <v>1.021500536240637</v>
+        <v>50288</v>
       </c>
       <c r="AF12">
-        <v>3800</v>
+        <v>321</v>
       </c>
       <c r="AG12">
-        <v>137</v>
+        <v>862</v>
       </c>
       <c r="AH12">
-        <v>46178</v>
+        <v>29536</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>340000</v>
       </c>
       <c r="AA13">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="AB13">
-        <v>155535</v>
+        <v>451315</v>
       </c>
       <c r="AC13">
-        <v>187538</v>
+        <v>438171</v>
       </c>
       <c r="AD13">
-        <v>1005</v>
+        <v>3456</v>
       </c>
       <c r="AE13">
-        <v>86.88835912104696</v>
+        <v>43753</v>
       </c>
       <c r="AF13">
-        <v>3</v>
+        <v>1360</v>
       </c>
       <c r="AG13">
-        <v>1272.326300621033</v>
+        <v>307</v>
       </c>
       <c r="AH13">
-        <v>33554</v>
+        <v>18394</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>320000</v>
       </c>
       <c r="AA14">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AB14">
-        <v>173964</v>
+        <v>509798</v>
       </c>
       <c r="AC14">
-        <v>194768</v>
+        <v>437203</v>
       </c>
       <c r="AD14">
-        <v>1145</v>
+        <v>3540</v>
       </c>
       <c r="AE14">
-        <v>78</v>
+        <v>38479</v>
       </c>
       <c r="AF14">
-        <v>50</v>
+        <v>1440</v>
       </c>
       <c r="AG14">
-        <v>260</v>
+        <v>463</v>
       </c>
       <c r="AH14">
-        <v>47806</v>
+        <v>28022</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>483246</v>
       </c>
       <c r="AA15">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="AB15">
-        <v>168616</v>
+        <v>824042</v>
       </c>
       <c r="AC15">
-        <v>191035</v>
+        <v>690950</v>
       </c>
       <c r="AD15">
-        <v>1645</v>
+        <v>5023</v>
       </c>
       <c r="AE15">
-        <v>96</v>
+        <v>44105</v>
       </c>
       <c r="AF15">
-        <v>4</v>
+        <v>756</v>
       </c>
       <c r="AG15">
-        <v>702</v>
+        <v>139</v>
       </c>
       <c r="AH15">
-        <v>61799</v>
+        <v>17924</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>478701</v>
       </c>
       <c r="AA16">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="AB16">
-        <v>192664</v>
+        <v>698875</v>
       </c>
       <c r="AC16">
-        <v>224756</v>
+        <v>540257</v>
       </c>
       <c r="AD16">
-        <v>1891</v>
+        <v>6078</v>
       </c>
       <c r="AE16">
-        <v>160</v>
+        <v>30738</v>
       </c>
       <c r="AF16">
-        <v>211</v>
+        <v>2000</v>
       </c>
       <c r="AG16">
-        <v>5087</v>
+        <v>2906</v>
       </c>
       <c r="AH16">
-        <v>36692</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>348.7966</v>
       </c>
       <c r="K17">
-        <v>12.95189618214499</v>
+        <v>12.95189618715085</v>
       </c>
       <c r="L17">
-        <v>2.097759529970348</v>
+        <v>2.40774912185082</v>
       </c>
       <c r="M17">
         <v>26.5053262335791</v>
@@ -2226,28 +2226,28 @@
         <v>678300</v>
       </c>
       <c r="AA17">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="AB17">
-        <v>225562.8</v>
+        <v>665098.4</v>
       </c>
       <c r="AC17">
-        <v>253203.1</v>
+        <v>651633.2</v>
       </c>
       <c r="AD17">
-        <v>2480</v>
+        <v>6250</v>
       </c>
       <c r="AE17">
-        <v>308</v>
+        <v>35815</v>
       </c>
       <c r="AF17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>2164</v>
+        <v>3935</v>
       </c>
       <c r="AH17">
-        <v>101183</v>
+        <v>50290</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>427.3</v>
       </c>
       <c r="K18">
-        <v>15.07811857562046</v>
+        <v>15.07811858144123</v>
       </c>
       <c r="L18">
-        <v>2.349463091488407</v>
+        <v>1.485250990312667</v>
       </c>
       <c r="M18">
         <v>21.9849457499941</v>
@@ -2312,13 +2312,13 @@
         <v>28914</v>
       </c>
       <c r="U18">
-        <v>1.727450549489731</v>
+        <v>1.727450549515197</v>
       </c>
       <c r="V18">
         <v>97.09999999999999</v>
       </c>
       <c r="W18">
-        <v>87.26281318021938</v>
+        <v>87.26281318068504</v>
       </c>
       <c r="X18">
         <v>10968</v>
@@ -2330,28 +2330,28 @@
         <v>346676</v>
       </c>
       <c r="AA18">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="AB18">
-        <v>207185.3</v>
+        <v>681069</v>
       </c>
       <c r="AC18">
-        <v>264780.2</v>
+        <v>687000.9</v>
       </c>
       <c r="AD18">
-        <v>2709</v>
+        <v>6504</v>
       </c>
       <c r="AE18">
-        <v>457.967434332706</v>
+        <v>30155.7</v>
       </c>
       <c r="AF18">
-        <v>8.5</v>
+        <v>1038.27226074257</v>
       </c>
       <c r="AG18">
-        <v>3778.4</v>
+        <v>2083.2</v>
       </c>
       <c r="AH18">
-        <v>75207.10000000001</v>
+        <v>13115.8</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>50.8</v>
       </c>
       <c r="E19">
-        <v>17801.81071460247</v>
+        <v>17801.81071391702</v>
       </c>
       <c r="F19">
         <v>21402.3818</v>
@@ -2386,10 +2386,10 @@
         <v>431.1</v>
       </c>
       <c r="K19">
-        <v>17.71865017653909</v>
+        <v>17.71865018282551</v>
       </c>
       <c r="L19">
-        <v>1.97809499996229</v>
+        <v>2.581396328486373</v>
       </c>
       <c r="M19">
         <v>13.9358495921724</v>
@@ -2416,13 +2416,13 @@
         <v>1563</v>
       </c>
       <c r="U19">
-        <v>1.878851648398268</v>
+        <v>1.878851648427371</v>
       </c>
       <c r="V19">
         <v>96.8</v>
       </c>
       <c r="W19">
-        <v>82.41122526675463</v>
+        <v>82.41122526815161</v>
       </c>
       <c r="X19">
         <v>19380</v>
@@ -2434,28 +2434,28 @@
         <v>346974</v>
       </c>
       <c r="AA19">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AB19">
-        <v>248540.7</v>
+        <v>524978.4</v>
       </c>
       <c r="AC19">
-        <v>271485.1</v>
+        <v>625142.1</v>
       </c>
       <c r="AD19">
-        <v>3044</v>
+        <v>5540</v>
       </c>
       <c r="AE19">
-        <v>1211.5</v>
+        <v>2709.5</v>
       </c>
       <c r="AF19">
-        <v>81.09999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="AG19">
-        <v>2661.6</v>
+        <v>6231.1</v>
       </c>
       <c r="AH19">
-        <v>139997.8</v>
+        <v>49442.3</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>50.7</v>
       </c>
       <c r="E20">
-        <v>19385.10567253828</v>
+        <v>19385.10567173362</v>
       </c>
       <c r="F20">
         <v>20587.0422</v>
@@ -2490,10 +2490,10 @@
         <v>489.0353</v>
       </c>
       <c r="K20">
-        <v>20.87349098420236</v>
+        <v>20.8734909913037</v>
       </c>
       <c r="L20">
-        <v>2.249664304800256</v>
+        <v>2.208739172594516</v>
       </c>
       <c r="M20">
         <v>9.951499335822501</v>
@@ -2520,13 +2520,13 @@
         <v>15640</v>
       </c>
       <c r="U20">
-        <v>2.041320943819301</v>
+        <v>2.041320943852043</v>
       </c>
       <c r="V20">
         <v>97.40000000000001</v>
       </c>
       <c r="W20">
-        <v>76.48691272549331</v>
+        <v>76.48691272595897</v>
       </c>
       <c r="X20">
         <v>22065</v>
@@ -2538,28 +2538,28 @@
         <v>280039</v>
       </c>
       <c r="AA20">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="AB20">
-        <v>329752</v>
+        <v>661557</v>
       </c>
       <c r="AC20">
-        <v>372628</v>
+        <v>783510</v>
       </c>
       <c r="AD20">
-        <v>3078</v>
+        <v>6731</v>
       </c>
       <c r="AE20">
-        <v>669</v>
+        <v>70</v>
       </c>
       <c r="AF20">
-        <v>765.8942496100253</v>
+        <v>817.910667410884</v>
       </c>
       <c r="AG20">
-        <v>2304</v>
+        <v>1822</v>
       </c>
       <c r="AH20">
-        <v>104602</v>
+        <v>26838</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>50.8</v>
       </c>
       <c r="E21">
-        <v>21035.32850155234</v>
+        <v>21035.32850068808</v>
       </c>
       <c r="F21">
         <v>25333</v>
@@ -2594,25 +2594,25 @@
         <v>535.3614</v>
       </c>
       <c r="K21">
-        <v>24.54264099907596</v>
+        <v>24.54264100664295</v>
       </c>
       <c r="L21">
-        <v>2.183905112485478</v>
+        <v>1.629409048130662</v>
       </c>
       <c r="M21">
         <v>7.30531574770898</v>
       </c>
       <c r="N21">
-        <v>196.5227941216435</v>
+        <v>196.5227941162884</v>
       </c>
       <c r="O21">
-        <v>113.8167402022518</v>
+        <v>113.816740191076</v>
       </c>
       <c r="P21">
         <v>1923.8</v>
       </c>
       <c r="Q21">
-        <v>93.8119362735888</v>
+        <v>93.81193627486937</v>
       </c>
       <c r="R21">
         <v>40.9</v>
@@ -2621,49 +2621,49 @@
         <v>398440</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-15981.07353878021</v>
       </c>
       <c r="U21">
-        <v>2.214858435745555</v>
+        <v>2.214858435785573</v>
       </c>
       <c r="V21">
         <v>98.5</v>
       </c>
       <c r="W21">
-        <v>69.48987555596977</v>
+        <v>69.48987555643544</v>
       </c>
       <c r="X21">
-        <v>25105.00490403175</v>
+        <v>25105.00490021706</v>
       </c>
       <c r="Y21">
-        <v>58.10381380893584</v>
+        <v>54.78239367345514</v>
       </c>
       <c r="Z21">
         <v>35434</v>
       </c>
       <c r="AA21">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="AB21">
-        <v>363195</v>
+        <v>816508</v>
       </c>
       <c r="AC21">
-        <v>377626</v>
+        <v>855378</v>
       </c>
       <c r="AD21">
-        <v>3094</v>
+        <v>7327</v>
       </c>
       <c r="AE21">
-        <v>189</v>
+        <v>794</v>
       </c>
       <c r="AF21">
-        <v>189</v>
+        <v>912.912438091781</v>
       </c>
       <c r="AG21">
-        <v>203</v>
+        <v>6338</v>
       </c>
       <c r="AH21">
-        <v>93570</v>
+        <v>26980</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>50.5</v>
       </c>
       <c r="E22">
-        <v>22752.47920173407</v>
+        <v>22752.47920072079</v>
       </c>
       <c r="F22">
         <v>24229.9311</v>
@@ -2692,82 +2692,82 @@
         <v>54.81</v>
       </c>
       <c r="I22">
-        <v>3.914086687269446</v>
+        <v>3.914086687276722</v>
       </c>
       <c r="J22">
-        <v>659.9795998167247</v>
+        <v>659.9795998502523</v>
       </c>
       <c r="K22">
-        <v>28.72610022115987</v>
+        <v>28.72610022942536</v>
       </c>
       <c r="L22">
-        <v>2.349267042833876</v>
+        <v>1.992068973166623</v>
       </c>
       <c r="M22">
-        <v>66.00139570981264</v>
+        <v>66.00139579549432</v>
       </c>
       <c r="N22">
-        <v>205.7130676000379</v>
+        <v>205.7130675932858</v>
       </c>
       <c r="O22">
-        <v>132.9392195609398</v>
+        <v>132.9392195492983</v>
       </c>
       <c r="P22">
-        <v>1669.395192691785</v>
+        <v>1285.382320530225</v>
       </c>
       <c r="Q22">
-        <v>93.04142285767011</v>
+        <v>93.04142285900889</v>
       </c>
       <c r="R22">
-        <v>46.82161764567718</v>
+        <v>46.82161765778437</v>
       </c>
       <c r="S22">
         <v>337909</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-34011.32844185829</v>
       </c>
       <c r="U22">
-        <v>2.399464124187944</v>
+        <v>2.399464124227961</v>
       </c>
       <c r="V22">
-        <v>90.63101136148907</v>
+        <v>90.63101134472527</v>
       </c>
       <c r="W22">
-        <v>61.42011375725269</v>
+        <v>61.42011375818402</v>
       </c>
       <c r="X22">
-        <v>30685.77631807327</v>
+        <v>30685.77631378174</v>
       </c>
       <c r="Y22">
-        <v>54.47624389313298</v>
+        <v>56.16055036061336</v>
       </c>
       <c r="Z22">
-        <v>238691.7990493774</v>
+        <v>238691.7990512848</v>
       </c>
       <c r="AA22">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="AB22">
-        <v>473670.8</v>
+        <v>919945.3</v>
       </c>
       <c r="AC22">
-        <v>492345.2</v>
+        <v>1036172.8</v>
       </c>
       <c r="AD22">
-        <v>3787</v>
+        <v>8372</v>
       </c>
       <c r="AE22">
-        <v>712</v>
+        <v>802.8</v>
       </c>
       <c r="AF22">
-        <v>432.5740465934077</v>
+        <v>915.789400272436</v>
       </c>
       <c r="AG22">
-        <v>356</v>
+        <v>5250</v>
       </c>
       <c r="AH22">
-        <v>137737.7</v>
+        <v>18408.7</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>51.2</v>
       </c>
       <c r="E23">
-        <v>24536.55777308345</v>
+        <v>24536.55777195096</v>
       </c>
       <c r="F23">
-        <v>26995.66505670547</v>
+        <v>26995.66505715251</v>
       </c>
       <c r="G23">
         <v>2.88</v>
       </c>
       <c r="H23">
-        <v>59.34678921860177</v>
+        <v>59.34678921836894</v>
       </c>
       <c r="I23">
-        <v>4.065593395178439</v>
+        <v>4.065593395207543</v>
       </c>
       <c r="J23">
-        <v>754.516629319638</v>
+        <v>754.5166293550283</v>
       </c>
       <c r="K23">
-        <v>33.42386865022127</v>
+        <v>33.42386865941808</v>
       </c>
       <c r="L23">
-        <v>2.403345107979194</v>
+        <v>2.015098278500396</v>
       </c>
       <c r="M23">
-        <v>100.283815253526</v>
+        <v>100.2838153485209</v>
       </c>
       <c r="N23">
-        <v>215.7681888591032</v>
+        <v>215.7681888518855</v>
       </c>
       <c r="O23">
-        <v>153.5240170322359</v>
+        <v>153.5240170191973</v>
       </c>
       <c r="P23">
-        <v>1544.699490655518</v>
+        <v>2115.467204671679</v>
       </c>
       <c r="Q23">
-        <v>92.10451238288078</v>
+        <v>92.10451238445239</v>
       </c>
       <c r="R23">
-        <v>54.10024509532377</v>
+        <v>54.10024510952644</v>
       </c>
       <c r="S23">
-        <v>374690.7288513184</v>
+        <v>374690.7288799286</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-52905.93086791039</v>
       </c>
       <c r="U23">
-        <v>2.595138009128277</v>
+        <v>2.595138009182847</v>
       </c>
       <c r="V23">
-        <v>85.91601652326062</v>
+        <v>85.916016504867</v>
       </c>
       <c r="W23">
-        <v>52.27762733120471</v>
+        <v>52.27762733213603</v>
       </c>
       <c r="X23">
-        <v>36860.63003325462</v>
+        <v>36860.63002872467</v>
       </c>
       <c r="Y23">
-        <v>62.87057812322511</v>
+        <v>51.99152679833684</v>
       </c>
       <c r="Z23">
-        <v>201619.450750351</v>
+        <v>201619.450756073</v>
       </c>
       <c r="AA23">
-        <v>122.4545454530744</v>
+        <v>175.090909127146</v>
       </c>
       <c r="AB23">
-        <v>495700.1136798859</v>
+        <v>812311.8022270203</v>
       </c>
       <c r="AC23">
-        <v>533236.6727409363</v>
+        <v>1023569.945514679</v>
       </c>
       <c r="AD23">
-        <v>3890.977272711694</v>
+        <v>7954.022726908326</v>
       </c>
       <c r="AE23">
-        <v>731.9544800268486</v>
+        <v>-22895.00454998016</v>
       </c>
       <c r="AF23">
-        <v>-144.5916309990791</v>
+        <v>613.3553388201074</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>7951.584091305733</v>
       </c>
       <c r="AH23">
-        <v>145444.0272741318</v>
+        <v>52293.89399410397</v>
       </c>
     </row>
   </sheetData>
